--- a/classfiers/mega/svm/smote/mega-svm-poly-smote-results.xlsx
+++ b/classfiers/mega/svm/smote/mega-svm-poly-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.555984555984556</v>
+        <v>0.855072463768116</v>
       </c>
       <c r="C2" t="n">
-        <v>0.7783783783783784</v>
+        <v>0.9516129032258065</v>
       </c>
       <c r="D2" t="n">
-        <v>0.6486486486486487</v>
+        <v>0.900763358778626</v>
       </c>
       <c r="E2" t="n">
-        <v>0.7521110299488678</v>
+        <v>0.9893051219794197</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9795918367346939</v>
+        <v>0.9732620320855615</v>
       </c>
       <c r="C3" t="n">
-        <v>0.7783783783783784</v>
+        <v>0.978494623655914</v>
       </c>
       <c r="D3" t="n">
-        <v>0.8674698795180723</v>
+        <v>0.9758713136729223</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9774141709276845</v>
+        <v>0.9993640883339113</v>
       </c>
     </row>
     <row r="4">
@@ -505,16 +505,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.9863013698630136</v>
+        <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.7783783783783784</v>
+        <v>0.9623655913978495</v>
       </c>
       <c r="D4" t="n">
-        <v>0.8700906344410876</v>
+        <v>0.9808219178082191</v>
       </c>
       <c r="E4" t="n">
-        <v>0.9826150474799124</v>
+        <v>0.999710949242687</v>
       </c>
     </row>
     <row r="5">
@@ -527,13 +527,13 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.9731182795698925</v>
       </c>
       <c r="D5" t="n">
-        <v>0.8437499999999999</v>
+        <v>0.9863760217983651</v>
       </c>
       <c r="E5" t="n">
-        <v>0.9861504747991234</v>
+        <v>1</v>
       </c>
     </row>
     <row r="6">
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9926470588235294</v>
+        <v>0.9943820224719101</v>
       </c>
       <c r="C6" t="n">
-        <v>0.7297297297297297</v>
+        <v>0.9567567567567568</v>
       </c>
       <c r="D6" t="n">
-        <v>0.8411214953271028</v>
+        <v>0.975206611570248</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9942147552958364</v>
+        <v>0.9995931415286254</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9029049642811586</v>
+        <v>0.9645433036651175</v>
       </c>
       <c r="C7" t="n">
-        <v>0.7589189189189189</v>
+        <v>0.9644696309212438</v>
       </c>
       <c r="D7" t="n">
-        <v>0.8142161315869823</v>
+        <v>0.9638078447256762</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9385010956902848</v>
+        <v>0.9975946602169288</v>
       </c>
     </row>
   </sheetData>

--- a/classfiers/mega/svm/smote/mega-svm-poly-smote-results.xlsx
+++ b/classfiers/mega/svm/smote/mega-svm-poly-smote-results.xlsx
@@ -467,16 +467,16 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0.855072463768116</v>
+        <v>0.8556149732620321</v>
       </c>
       <c r="C2" t="n">
-        <v>0.9516129032258065</v>
+        <v>0.9467455621301775</v>
       </c>
       <c r="D2" t="n">
-        <v>0.900763358778626</v>
+        <v>0.898876404494382</v>
       </c>
       <c r="E2" t="n">
-        <v>0.9893051219794197</v>
+        <v>0.9885858338293477</v>
       </c>
     </row>
     <row r="3">
@@ -486,16 +486,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0.9732620320855615</v>
+        <v>0.9702380952380952</v>
       </c>
       <c r="C3" t="n">
-        <v>0.978494623655914</v>
+        <v>0.9644970414201184</v>
       </c>
       <c r="D3" t="n">
-        <v>0.9758713136729223</v>
+        <v>0.967359050445104</v>
       </c>
       <c r="E3" t="n">
-        <v>0.9993640883339113</v>
+        <v>0.9986695143727461</v>
       </c>
     </row>
     <row r="4">
@@ -508,13 +508,13 @@
         <v>1</v>
       </c>
       <c r="C4" t="n">
-        <v>0.9623655913978495</v>
+        <v>0.9704142011834319</v>
       </c>
       <c r="D4" t="n">
-        <v>0.9808219178082191</v>
+        <v>0.9849849849849849</v>
       </c>
       <c r="E4" t="n">
-        <v>0.999710949242687</v>
+        <v>0.9997198977626833</v>
       </c>
     </row>
     <row r="5">
@@ -527,10 +527,10 @@
         <v>1</v>
       </c>
       <c r="C5" t="n">
-        <v>0.9731182795698925</v>
+        <v>0.9763313609467456</v>
       </c>
       <c r="D5" t="n">
-        <v>0.9863760217983651</v>
+        <v>0.9880239520958084</v>
       </c>
       <c r="E5" t="n">
         <v>1</v>
@@ -543,16 +543,16 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>0.9943820224719101</v>
+        <v>0.9937888198757764</v>
       </c>
       <c r="C6" t="n">
-        <v>0.9567567567567568</v>
+        <v>0.9467455621301775</v>
       </c>
       <c r="D6" t="n">
-        <v>0.975206611570248</v>
+        <v>0.9696969696969696</v>
       </c>
       <c r="E6" t="n">
-        <v>0.9995931415286254</v>
+        <v>0.9996148594236897</v>
       </c>
     </row>
     <row r="7">
@@ -562,16 +562,16 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0.9645433036651175</v>
+        <v>0.9639283776751807</v>
       </c>
       <c r="C7" t="n">
-        <v>0.9644696309212438</v>
+        <v>0.9609467455621301</v>
       </c>
       <c r="D7" t="n">
-        <v>0.9638078447256762</v>
+        <v>0.9617882723434498</v>
       </c>
       <c r="E7" t="n">
-        <v>0.9975946602169288</v>
+        <v>0.9973180210776933</v>
       </c>
     </row>
   </sheetData>
